--- a/DataTest/AddProduct.xlsx
+++ b/DataTest/AddProduct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuceedu-my.sharepoint.com/personal/dung47265_huce_edu_vn/Documents/DATN_47265/DATN_Selenium_Java_ThuyDung1/DATN_Selenium_Java_ThuyDung/DataTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{8B5E609D-DA25-411A-BC83-55C469AC853C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A70B6D6E-329B-4C78-A775-2FC547BFE705}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB26061D-D0EB-48AD-86FD-0A2B4935E8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddProduct" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>quatet</t>
   </si>
   <si>
-    <t>Giỏ Quà Tết cao cấp, sang trọng dành cho mùa Tết 2024, hứa hẹn sẽ là món quà tinh thần ý nghĩa nhất cho người thân</t>
-  </si>
-  <si>
     <t>Gio qua Tet</t>
   </si>
   <si>
@@ -86,13 +83,16 @@
   </si>
   <si>
     <t>01-03-2024 00:00:00 to 31-05-2024 00:00:00</t>
+  </si>
+  <si>
+    <t>Giỏ Quà Tết cao cấp, sang trọng dành cho mùa Tết 2024, hứa hẹn sẽ là món quà tinh thần ý nghĩa nhất cho người thân.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,10 +134,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -148,10 +160,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,19 +423,19 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="46" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.5546875" style="1" customWidth="1"/>
@@ -435,108 +443,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="54">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>336</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2">
+        <v>138000</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>336</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1">
-        <v>138000</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>999</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="54">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2">
+        <v>300</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1">
-        <v>500000</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1">
-        <v>300</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DataTest/AddProduct.xlsx
+++ b/DataTest/AddProduct.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThuyDung\DATN_Selenium_Java_ThuyDung\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB26061D-D0EB-48AD-86FD-0A2B4935E8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="AddProduct" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>productName</t>
   </si>
@@ -91,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -419,11 +418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
@@ -442,7 +441,7 @@
     <col min="12" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -544,6 +543,39 @@
         <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="54">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2">
+        <v>300</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/DataTest/AddProduct.xlsx
+++ b/DataTest/AddProduct.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThuyDung\DATN_Selenium_Java_ThuyDung\DataTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BCEE66-5C01-4D6F-BB51-2136D64A5865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="602"/>
+    <workbookView xWindow="11124" yWindow="2652" windowWidth="11916" windowHeight="8880" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddProduct" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>productName</t>
   </si>
@@ -85,12 +86,15 @@
   </si>
   <si>
     <t>Giỏ Quà Tết cao cấp, sang trọng dành cho mùa Tết 2024, hứa hẹn sẽ là món quà tinh thần ý nghĩa nhất cho người thân.</t>
+  </si>
+  <si>
+    <t>Gio qua</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -418,11 +422,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
@@ -547,13 +551,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="54">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2">
         <v>1500</v>
       </c>

--- a/DataTest/AddProduct.xlsx
+++ b/DataTest/AddProduct.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThuyDung\DATN_Selenium_Java_ThuyDung\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BCEE66-5C01-4D6F-BB51-2136D64A5865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11124" yWindow="2652" windowWidth="11916" windowHeight="8880" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11124" yWindow="2652" windowWidth="11916" windowHeight="8880" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="AddProduct" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>productName</t>
   </si>
@@ -89,25 +88,33 @@
   </si>
   <si>
     <t>Gio qua</t>
+  </si>
+  <si>
+    <t>01-03-2024 00:00:00 to 20-03-2024 00:00:00</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>No Discount</t>
+  </si>
+  <si>
+    <t>unit null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,15 +144,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,11 +426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
@@ -445,146 +449,157 @@
     <col min="12" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="54">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" ht="54">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>336</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>138000</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>999</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>5</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="54">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:12" ht="54">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>1500</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>500000</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1">
+        <v>300</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="54">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>500000</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="1">
         <v>300</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="54">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>1500</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2">
-        <v>300</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataTest/AddProduct.xlsx
+++ b/DataTest/AddProduct.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThuyDung\DATN_Selenium_Java_ThuyDung\DataTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuceedu-my.sharepoint.com/personal/dung47265_huce_edu_vn/Documents/DATN_47265/DATN_Selenium_Java_ThuyDung1/DATN_Selenium_Java_ThuyDung/DataTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_C7709F7FC38686363B104D63CAF3B37F46C3C10A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB2BD660-F807-423E-BE7B-38C3C3DD889D}"/>
   <bookViews>
-    <workbookView xWindow="11124" yWindow="2652" windowWidth="11916" windowHeight="8880" tabRatio="602"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddProduct" sheetId="1" r:id="rId1"/>
@@ -78,9 +79,6 @@
     <t>gio-qua-1.jpg</t>
   </si>
   <si>
-    <t>Cake</t>
-  </si>
-  <si>
     <t>01-03-2024 00:00:00 to 31-05-2024 00:00:00</t>
   </si>
   <si>
@@ -103,12 +101,15 @@
   </si>
   <si>
     <t>unit null</t>
+  </si>
+  <si>
+    <t>Sweet Cake</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -426,30 +427,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="46" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="37.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,15 +485,15 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="54">
+    <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -507,7 +508,7 @@
         <v>138000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1">
         <v>999</v>
@@ -522,15 +523,15 @@
         <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="54">
+    <row r="3" spans="1:12" ht="75">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -545,13 +546,13 @@
         <v>500000</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1">
         <v>300</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
@@ -560,15 +561,15 @@
         <v>18</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="54">
+    <row r="4" spans="1:12" ht="75">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1">
         <v>1500</v>
@@ -580,13 +581,13 @@
         <v>500000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1">
         <v>300</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1">
         <v>2</v>
@@ -595,7 +596,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/DataTest/AddProduct.xlsx
+++ b/DataTest/AddProduct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuceedu-my.sharepoint.com/personal/dung47265_huce_edu_vn/Documents/DATN_47265/DATN_Selenium_Java_ThuyDung1/DATN_Selenium_Java_ThuyDung/DataTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_C7709F7FC38686363B104D63CAF3B37F46C3C10A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB2BD660-F807-423E-BE7B-38C3C3DD889D}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{39367BAC-AE9B-4ADC-8C25-966DD0CD35FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87DD6FFF-63D3-401B-B7A9-2F3EA2964259}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>productName</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Sweet Cake</t>
+  </si>
+  <si>
+    <t>vat</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75"/>
@@ -450,7 +453,7 @@
     <col min="12" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.5">
+    <row r="1" spans="1:13" ht="37.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,8 +490,11 @@
       <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="75">
+    <row r="2" spans="1:13" ht="75">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -525,8 +531,11 @@
       <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="M2" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="75">
+    <row r="3" spans="1:13" ht="75">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -563,8 +572,11 @@
       <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="75">
+    <row r="4" spans="1:13" ht="75">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -597,6 +609,9 @@
       </c>
       <c r="L4" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DataTest/AddProduct.xlsx
+++ b/DataTest/AddProduct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuceedu-my.sharepoint.com/personal/dung47265_huce_edu_vn/Documents/DATN_47265/DATN_Selenium_Java_ThuyDung1/DATN_Selenium_Java_ThuyDung/DataTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{39367BAC-AE9B-4ADC-8C25-966DD0CD35FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87DD6FFF-63D3-401B-B7A9-2F3EA2964259}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{39367BAC-AE9B-4ADC-8C25-966DD0CD35FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA3D6ABA-7920-42CB-91F0-5FD72C26B8FD}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75"/>
@@ -532,7 +532,7 @@
         <v>24</v>
       </c>
       <c r="M2" s="1">
-        <v>5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="75">
@@ -573,7 +573,7 @@
         <v>25</v>
       </c>
       <c r="M3" s="1">
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="75">
@@ -611,7 +611,7 @@
         <v>26</v>
       </c>
       <c r="M4" s="1">
-        <v>2</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/DataTest/AddProduct.xlsx
+++ b/DataTest/AddProduct.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuceedu-my.sharepoint.com/personal/dung47265_huce_edu_vn/Documents/DATN_47265/DATN_Selenium_Java_ThuyDung1/DATN_Selenium_Java_ThuyDung/DataTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{39367BAC-AE9B-4ADC-8C25-966DD0CD35FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA3D6ABA-7920-42CB-91F0-5FD72C26B8FD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ABDD15-C820-4C50-8452-6F301B02A40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="2925" windowWidth="22905" windowHeight="11295" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddProduct" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>productName</t>
   </si>
@@ -89,18 +89,6 @@
   </si>
   <si>
     <t>01-03-2024 00:00:00 to 20-03-2024 00:00:00</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>No Discount</t>
-  </si>
-  <si>
-    <t>unit null</t>
   </si>
   <si>
     <t>Sweet Cake</t>
@@ -431,184 +419,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="B1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="46" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="46" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:13" ht="37.5">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="75">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="75">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>336</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>138000</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>999</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="M2" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="2:13" ht="75">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>1500</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>500000</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>300</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>2</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="M3" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="2:13" ht="75">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1">
         <v>1500</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>500000</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>300</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="M4" s="1">
         <v>3000</v>

--- a/DataTest/AddProduct.xlsx
+++ b/DataTest/AddProduct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ABDD15-C820-4C50-8452-6F301B02A40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAA322A-521D-4337-83BF-6E2B3C45D626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2925" windowWidth="22905" windowHeight="11295" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1560" windowWidth="22905" windowHeight="11295" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddProduct" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>productName</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>vat</t>
+  </si>
+  <si>
+    <t>gio-qua-2.jpg</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <dimension ref="B1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75"/>
@@ -585,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1">
         <v>3000</v>
